--- a/IO_M2.1_new/Reprod_RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/Reprod_RunControl_M2.1_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" firstSheet="1" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -2058,10 +2058,7 @@
     <xf numFmtId="2" fontId="16" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2070,13 +2067,16 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5227,10 +5227,10 @@
   <dimension ref="A1:AY109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="O87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A111" sqref="A111"/>
+      <selection pane="bottomRight" activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5426,62 +5426,62 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
       <c r="D4" s="53"/>
-      <c r="E4" s="116" t="s">
+      <c r="E4" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="116"/>
+      <c r="F4" s="120"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="119" t="s">
+      <c r="I4" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="117" t="s">
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="117"/>
+      <c r="M4" s="116"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="118" t="s">
+      <c r="O4" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="117" t="s">
+      <c r="P4" s="117"/>
+      <c r="Q4" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="118" t="s">
+      <c r="AA4" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="118"/>
-      <c r="AC4" s="118"/>
-      <c r="AD4" s="120" t="s">
+      <c r="AB4" s="117"/>
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="120"/>
-      <c r="AF4" s="120"/>
+      <c r="AE4" s="115"/>
+      <c r="AF4" s="115"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="115" t="s">
+      <c r="AH4" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" s="115"/>
-      <c r="AJ4" s="115"/>
+      <c r="AI4" s="118"/>
+      <c r="AJ4" s="118"/>
       <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
@@ -5489,17 +5489,17 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
-      <c r="AP4" s="120" t="s">
+      <c r="AP4" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="120"/>
-      <c r="AR4" s="120"/>
-      <c r="AS4" s="121" t="s">
+      <c r="AQ4" s="115"/>
+      <c r="AR4" s="115"/>
+      <c r="AS4" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="AT4" s="121"/>
-      <c r="AU4" s="121"/>
-      <c r="AV4" s="121"/>
+      <c r="AT4" s="119"/>
+      <c r="AU4" s="119"/>
+      <c r="AV4" s="119"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="22"/>
       <c r="AY4" s="20"/>
@@ -18654,17 +18654,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="AS4:AV4"/>
     <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations xWindow="1269" yWindow="762" count="21">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN105:AN109 AN13:AN102">

--- a/IO_M2.1_new/Reprod_RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/Reprod_RunControl_M2.1_new.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_Main\IO_M2.1_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -1594,7 +1594,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -2058,7 +2058,10 @@
     <xf numFmtId="2" fontId="16" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2067,16 +2070,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2187,7 +2187,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3517,7 +3523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3529,9 +3535,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.625"/>
-    <col min="2" max="2" width="16.75"/>
-    <col min="3" max="1025" width="8.625"/>
+    <col min="1" max="1" width="7.5703125"/>
+    <col min="2" max="2" width="16.7109375"/>
+    <col min="3" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3568,9 +3574,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="'Notes'!A1" display="Notes"/>
-    <hyperlink ref="B3" location="'RunControl'!A1" display="RunControl"/>
-    <hyperlink ref="B4" location="'DropDowns'!A1" display="DropDowns"/>
+    <hyperlink ref="B2" location="'Notes'!A1" display="Notes" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" location="'RunControl'!A1" display="RunControl" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" location="'DropDowns'!A1" display="DropDowns" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3578,7 +3584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3589,17 +3595,17 @@
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="14" style="42" customWidth="1"/>
-    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="42" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
-    <col min="12" max="12" width="11.875" customWidth="1"/>
-    <col min="13" max="13" width="18.875" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
-    <col min="15" max="15" width="14.875" customWidth="1"/>
-    <col min="16" max="16" width="14.25" style="42" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="42" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -4538,21 +4544,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B2:O28"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:J14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="24.625" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="7" width="9.375" style="77" customWidth="1"/>
-    <col min="8" max="8" width="11.75" style="77" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="77" customWidth="1"/>
-    <col min="10" max="10" width="10.25" style="77" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="7" width="9.42578125" style="77" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="77" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="77" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="77" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
@@ -5134,7 +5140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:A25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5143,7 +5149,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.625"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -5223,46 +5229,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="O87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A107" sqref="A107"/>
+      <selection pane="bottomRight" activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.625" customWidth="1"/>
-    <col min="2" max="2" width="84.625" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="42" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="67.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="42" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="20.25" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="8.25" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
     <col min="9" max="10" width="16" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="20.875" customWidth="1"/>
-    <col min="12" max="12" width="24.375"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125"/>
     <col min="13" max="14" width="22" customWidth="1"/>
-    <col min="15" max="16" width="13.125" customWidth="1"/>
-    <col min="17" max="21" width="9.25" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="21" width="9.28515625" customWidth="1"/>
     <col min="22" max="22" width="16"/>
-    <col min="23" max="24" width="12.75"/>
-    <col min="25" max="26" width="10.875" customWidth="1"/>
-    <col min="27" max="29" width="12.75"/>
-    <col min="30" max="30" width="11.125" customWidth="1"/>
-    <col min="31" max="31" width="12.75" style="24"/>
-    <col min="32" max="35" width="12.75"/>
-    <col min="36" max="36" width="12.75" customWidth="1"/>
-    <col min="37" max="37" width="11.875" customWidth="1"/>
-    <col min="42" max="43" width="11.75" customWidth="1"/>
-    <col min="44" max="44" width="13.125" customWidth="1"/>
-    <col min="45" max="48" width="12.75"/>
+    <col min="23" max="24" width="12.7109375"/>
+    <col min="25" max="26" width="10.85546875" customWidth="1"/>
+    <col min="27" max="29" width="12.7109375"/>
+    <col min="30" max="30" width="11.140625" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" style="24"/>
+    <col min="32" max="35" width="12.7109375"/>
+    <col min="36" max="36" width="12.7109375" customWidth="1"/>
+    <col min="37" max="37" width="11.85546875" customWidth="1"/>
+    <col min="42" max="43" width="11.7109375" customWidth="1"/>
+    <col min="44" max="44" width="13.140625" customWidth="1"/>
+    <col min="45" max="48" width="12.7109375"/>
     <col min="51" max="51" width="9" customWidth="1"/>
-    <col min="52" max="1038" width="8.625"/>
+    <col min="52" max="1038" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -5276,7 +5282,7 @@
       <c r="AX1" s="1"/>
       <c r="AY1" s="1"/>
     </row>
-    <row r="2" spans="1:51" s="4" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" s="4" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -5372,7 +5378,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:51" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -5426,62 +5432,62 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
       <c r="D4" s="53"/>
-      <c r="E4" s="120" t="s">
+      <c r="E4" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="120"/>
+      <c r="F4" s="116"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="121" t="s">
+      <c r="I4" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="116" t="s">
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="116"/>
+      <c r="M4" s="117"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="117" t="s">
+      <c r="O4" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="116" t="s">
+      <c r="P4" s="118"/>
+      <c r="Q4" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="117" t="s">
+      <c r="AA4" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="117"/>
-      <c r="AC4" s="117"/>
-      <c r="AD4" s="115" t="s">
+      <c r="AB4" s="118"/>
+      <c r="AC4" s="118"/>
+      <c r="AD4" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="115"/>
-      <c r="AF4" s="115"/>
+      <c r="AE4" s="120"/>
+      <c r="AF4" s="120"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="118" t="s">
+      <c r="AH4" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" s="118"/>
-      <c r="AJ4" s="118"/>
+      <c r="AI4" s="115"/>
+      <c r="AJ4" s="115"/>
       <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
@@ -5489,17 +5495,17 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
-      <c r="AP4" s="115" t="s">
+      <c r="AP4" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="115"/>
-      <c r="AR4" s="115"/>
-      <c r="AS4" s="119" t="s">
+      <c r="AQ4" s="120"/>
+      <c r="AR4" s="120"/>
+      <c r="AS4" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="AT4" s="119"/>
-      <c r="AU4" s="119"/>
-      <c r="AV4" s="119"/>
+      <c r="AT4" s="121"/>
+      <c r="AU4" s="121"/>
+      <c r="AV4" s="121"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="22"/>
       <c r="AY4" s="20"/>
@@ -6322,7 +6328,7 @@
         <v>290</v>
       </c>
       <c r="C14" s="44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="44" t="b">
         <v>1</v>
@@ -9543,7 +9549,7 @@
         <v>498</v>
       </c>
       <c r="C38" s="67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="67" t="b">
         <v>0</v>
@@ -18654,95 +18660,95 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I4:K4"/>
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="AS4:AV4"/>
     <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations xWindow="1269" yWindow="762" count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN105:AN109 AN13:AN102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN105:AN109 AN13:AN102" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI9 AI105:AI109 AI13:AI102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI9 AI105:AI109 AI13:AI102" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH105:AH109 AH13:AH102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH105:AH109 AH13:AH102" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS9 AS105:AS109 AS13:AS102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS9 AS105:AS109 AS13:AS102" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P9 C6:D10 P105:P109 C105:D109 P13:P102 C13:D102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P9 C6:D10 P105:P109 C105:D109 P13:P102 C13:D102" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB9 V6:V9 V105:V109 AB105:AB109 V13:V102 AB13:AB102">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB9 V6:V9 V105:V109 AB105:AB109 V13:V102 AB13:AB102" xr:uid="{00000000-0002-0000-0200-000005000000}">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X9 W105:X109 W13:X102">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X9 W105:X109 W13:X102" xr:uid="{00000000-0002-0000-0200-000006000000}">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA9 AC6:AC9 AE6:AE9 AC61 AC97:AC102 AE105:AE109 Y105:AA109 AC13:AC50 Y13:AA102 AE13:AE102">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA9 AC6:AC9 AE6:AE9 AC61 AC97:AC102 AE105:AE109 Y105:AA109 AC13:AC50 Y13:AA102 AE13:AE102" xr:uid="{00000000-0002-0000-0200-000007000000}">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ9 AJ105:AJ109 AJ13:AJ102">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ9 AJ105:AJ109 AJ13:AJ102" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU9 AT105:AU109 AT13:AU102">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU9 AT105:AU109 AT13:AU102" xr:uid="{00000000-0002-0000-0200-000009000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV9 AV105:AV109 AV13:AV102">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV9 AV105:AV109 AV13:AV102" xr:uid="{00000000-0002-0000-0200-00000A000000}">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF9 AF97:AF102 AF13:AF83">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF9 AF97:AF102 AF13:AF83" xr:uid="{00000000-0002-0000-0200-00000B000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL9 AL105:AL109 AL13:AL102">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL9 AL105:AL109 AL13:AL102" xr:uid="{00000000-0002-0000-0200-00000C000000}">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM105:AM109 AM13:AM102">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM105:AM109 AM13:AM102" xr:uid="{00000000-0002-0000-0200-00000D000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO105:AO109 AO13:AO102">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO105:AO109 AO13:AO102" xr:uid="{00000000-0002-0000-0200-00000E000000}">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD9 AD105:AD109 AD13:AD102"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY9 AW105:AY109 AW13:AY102">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD9 AD105:AD109 AD13:AD102" xr:uid="{00000000-0002-0000-0200-00000F000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY9 AW105:AY109 AW13:AY102" xr:uid="{00000000-0002-0000-0200-000010000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP105:AP109 AP13:AP102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP105:AP109 AP13:AP102" xr:uid="{00000000-0002-0000-0200-000011000000}">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ9 AQ105:AQ109 AQ13:AQ102">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ9 AQ105:AQ109 AQ13:AQ102" xr:uid="{00000000-0002-0000-0200-000012000000}">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S9 S105:S109 S13:S102">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S9 S105:S109 S13:S102" xr:uid="{00000000-0002-0000-0200-000013000000}">
       <formula1>35</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J9 I105:J109 I13:J102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J9 I105:J109 I13:J102" xr:uid="{00000000-0002-0000-0200-000014000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -18751,37 +18757,37 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="1269" yWindow="762" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000015000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$57:$A$61</xm:f>
           </x14:formula1>
           <xm:sqref>L6:L9 L105:L109 L13:L102</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000016000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$64:$A$71</xm:f>
           </x14:formula1>
           <xm:sqref>M6:M9 M105:M109 M13:M102</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000017000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$45:$A$52</xm:f>
           </x14:formula1>
           <xm:sqref>F6:F9 F105:F109 F13:F102</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000018000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$29:$A$42</xm:f>
           </x14:formula1>
           <xm:sqref>E6:E9 E105:E109 E13:E102</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000019000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$21:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>K6:K9 K105:K109 K13:K102</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-00001A000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$74:$A$77</xm:f>
           </x14:formula1>
@@ -18794,16 +18800,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -18868,7 +18874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18912,7 +18918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -18921,7 +18927,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.625"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -18982,7 +18988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
@@ -18991,10 +18997,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.375"/>
+    <col min="1" max="1" width="23.42578125"/>
     <col min="2" max="2" width="5"/>
-    <col min="3" max="3" width="85.375"/>
-    <col min="4" max="1025" width="8.625"/>
+    <col min="3" max="3" width="85.42578125"/>
+    <col min="4" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -19386,7 +19392,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19394,7 +19400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AR40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19403,11 +19409,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.875" style="31" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" style="31" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="110" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19945,78 +19951,78 @@
     </row>
   </sheetData>
   <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ39:AJ40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ39:AJ40" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB39:AB40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB39:AB40" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA39:AA40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA39:AA40" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL39:AL40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL39:AL40" xr:uid="{00000000-0002-0000-0700-000003000000}">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L40" xr:uid="{00000000-0002-0000-0700-000004000000}">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="O39:O40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="O39:O40" xr:uid="{00000000-0002-0000-0700-000005000000}">
       <formula1>55</formula1>
       <formula2>65</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="Q39:Q40 U39:U40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="Q39:Q40 U39:U40" xr:uid="{00000000-0002-0000-0700-000006000000}">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="R39:S40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="R39:S40" xr:uid="{00000000-0002-0000-0700-000007000000}">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="T39:T40 X39:X40 V39:V40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="T39:T40 X39:X40 V39:V40" xr:uid="{00000000-0002-0000-0700-000008000000}">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AC39:AC40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AC39:AC40" xr:uid="{00000000-0002-0000-0700-000009000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AM39:AN40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AM39:AN40" xr:uid="{00000000-0002-0000-0700-00000A000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AO39:AO40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AO39:AO40" xr:uid="{00000000-0002-0000-0700-00000B000000}">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="Y39:Y40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="Y39:Y40" xr:uid="{00000000-0002-0000-0700-00000C000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AH39:AH40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AH39:AH40" xr:uid="{00000000-0002-0000-0700-00000D000000}">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI39:AI40">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI39:AI40" xr:uid="{00000000-0002-0000-0700-00000E000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK39:AK40">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK39:AK40" xr:uid="{00000000-0002-0000-0700-00000F000000}">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="W39:W40"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP39:AR40">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="W39:W40" xr:uid="{00000000-0002-0000-0700-000010000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP39:AR40" xr:uid="{00000000-0002-0000-0700-000011000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD39:AD40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD39:AD40" xr:uid="{00000000-0002-0000-0700-000012000000}">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE39:AE40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE39:AE40" xr:uid="{00000000-0002-0000-0700-000013000000}">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
@@ -20025,13 +20031,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000014000000}">
           <x14:formula1>
             <xm:f>'C:\Users\Yimeng\Desktop\[RunControl_M1&amp;2.1(1).xlsx]DropDowns'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I39:I40</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000015000000}">
           <x14:formula1>
             <xm:f>'C:\Users\Yimeng\Desktop\[RunControl_M1&amp;2.1(1).xlsx]DropDowns'!#REF!</xm:f>
           </x14:formula1>
@@ -20044,7 +20050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:XFD45"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
@@ -20053,11 +20059,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.125" customWidth="1"/>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
-    <col min="3" max="3" width="54.875" customWidth="1"/>
-    <col min="4" max="4" width="72.25" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" customWidth="1"/>
+    <col min="4" max="4" width="72.28515625" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" x14ac:dyDescent="0.25">

--- a/IO_M2.1_new/Reprod_RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/Reprod_RunControl_M2.1_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -2058,10 +2058,7 @@
     <xf numFmtId="2" fontId="16" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2070,13 +2067,16 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5232,7 +5232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -5432,62 +5432,62 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
       <c r="D4" s="53"/>
-      <c r="E4" s="116" t="s">
+      <c r="E4" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="116"/>
+      <c r="F4" s="120"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="119" t="s">
+      <c r="I4" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="117" t="s">
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="117"/>
+      <c r="M4" s="116"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="118" t="s">
+      <c r="O4" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="117" t="s">
+      <c r="P4" s="117"/>
+      <c r="Q4" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="118" t="s">
+      <c r="AA4" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="118"/>
-      <c r="AC4" s="118"/>
-      <c r="AD4" s="120" t="s">
+      <c r="AB4" s="117"/>
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="120"/>
-      <c r="AF4" s="120"/>
+      <c r="AE4" s="115"/>
+      <c r="AF4" s="115"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="115" t="s">
+      <c r="AH4" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" s="115"/>
-      <c r="AJ4" s="115"/>
+      <c r="AI4" s="118"/>
+      <c r="AJ4" s="118"/>
       <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
@@ -5495,17 +5495,17 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
-      <c r="AP4" s="120" t="s">
+      <c r="AP4" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="120"/>
-      <c r="AR4" s="120"/>
-      <c r="AS4" s="121" t="s">
+      <c r="AQ4" s="115"/>
+      <c r="AR4" s="115"/>
+      <c r="AS4" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="AT4" s="121"/>
-      <c r="AU4" s="121"/>
-      <c r="AV4" s="121"/>
+      <c r="AT4" s="119"/>
+      <c r="AU4" s="119"/>
+      <c r="AV4" s="119"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="22"/>
       <c r="AY4" s="20"/>
@@ -18660,17 +18660,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="AS4:AV4"/>
     <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations xWindow="1269" yWindow="762" count="21">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN105:AN109 AN13:AN102" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -18921,8 +18921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18966,7 +18966,7 @@
         <v>1000</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>20</v>
